--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2519333.171326782</v>
+        <v>2594862.840991588</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>74.53476167013064</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>319.3678335162782</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>32.49138749858571</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>84.45262105857526</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>89.56099441449065</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>323.2235164126416</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>33.89709298817368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54.70191565295214</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.1379516479141</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>260.5326744831258</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>112.2638403784901</v>
+        <v>11.52703825325597</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441569768</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642757</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>33.35146980185922</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784705</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.34190763938049</v>
+        <v>131.7670008777449</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>71.27249328109806</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>229.0573510537939</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113186</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2479,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>115.1384561326077</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.1537278750051</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113182</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986336</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>115.526976800223</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>101.1426547140078</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>251.2471840162985</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>2.110676092231586</v>
+        <v>215.0546805228906</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>15.59458547084384</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9093185292947</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.425728663067</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>153.2037554398999</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>101.2898147863554</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.156396867425</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1298.193879927013</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>939.9281813202624</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>554.1399287220181</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1540239324106</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>129.2306198710015</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,31 +4430,31 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="C4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="D4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="E4" t="n">
-        <v>494.9102127870964</v>
+        <v>402.6523129118472</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>255.7623654139368</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>86.76256515226922</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="W4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="X4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="Y4" t="n">
-        <v>642.8233063694895</v>
+        <v>550.5654064942403</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1504.400259589023</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C5" t="n">
-        <v>1504.400259589023</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1504.400259589023</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1118.612006990779</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>707.6261022011713</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564835</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564835</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.400259589023</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>302.7751770479791</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>133.8389941200722</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>133.8389941200722</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>133.8389941200722</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4723,7 +4725,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600563</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146242</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087373</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087373</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1250.638474227114</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124028</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="C10" t="n">
-        <v>167.3408003844959</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="D10" t="n">
-        <v>167.3408003844959</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="E10" t="n">
-        <v>167.3408003844959</v>
+        <v>111.242979236317</v>
       </c>
       <c r="F10" t="n">
-        <v>167.3408003844959</v>
+        <v>111.242979236317</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3408003844959</v>
+        <v>111.242979236317</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124028</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124028</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124028</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="11">
@@ -5027,43 +5029,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684887</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903989</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383422</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383442</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,61 +5266,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471155</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119724</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119724</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119724</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119724</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119724</v>
+        <v>731.31772835508</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,31 +5503,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5537,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>727.1135926675569</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>506.3210135240267</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805471</v>
@@ -5750,19 +5752,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5908,52 +5910,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980057</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347402</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805479</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,19 +5989,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,10 +6010,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,13 +6022,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6072,16 +6074,16 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4660.934562929846</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4371.805924143404</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>4117.121435937517</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>3827.704265900556</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="X25" t="n">
-        <v>3599.714715002539</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6239,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201071</v>
+        <v>994.3109288932161</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201071</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201071</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9110074201071</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>213.9110074201071</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>213.9110074201071</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6394,40 +6396,40 @@
         <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347414</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609719</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>731.317728355085</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181244</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201071</v>
+        <v>1396.751972866986</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201071</v>
+        <v>1175.959393723456</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,25 +6457,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6485,7 +6487,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,19 +6530,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
         <v>674.428562457161</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3889.74280763497</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="C31" t="n">
-        <v>3720.806624707063</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>4407.149528569948</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>4407.149528569948</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W31" t="n">
-        <v>4117.732358532987</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X31" t="n">
-        <v>3889.74280763497</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y31" t="n">
-        <v>3889.74280763497</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6722,22 +6724,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>710.3120936331045</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
         <v>710.3120936331045</v>
@@ -6844,22 +6846,22 @@
         <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404653</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V34" t="n">
-        <v>933.2366688293938</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W34" t="n">
-        <v>933.2366688293938</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X34" t="n">
-        <v>931.1046727766346</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y34" t="n">
-        <v>710.3120936331045</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6956,19 +6958,19 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126483</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>392.0201325405894</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405894</v>
+        <v>557.888878489131</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405894</v>
+        <v>407.7722390767952</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581963</v>
+        <v>259.8591454944021</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>112.9691979964918</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>112.9691979964918</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>112.9691979964918</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.896756891949</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.111341681454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.111341681454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>909.4268534755674</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W37" t="n">
-        <v>620.0096834386068</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X37" t="n">
-        <v>392.0201325405894</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y37" t="n">
-        <v>392.0201325405894</v>
+        <v>726.8250614170379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250805</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095318</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>3158.474758001782</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>3465.794891281743</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3795.657518945776</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.74515569858</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014294</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>509.2863307027309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>509.2863307027309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
@@ -7342,40 +7344,40 @@
         <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347413</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609714</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609714</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>696.5850465240107</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>696.5850465240107</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y40" t="n">
-        <v>509.2863307027309</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7390,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7448,7 +7450,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126483</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>4223.429265789278</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>4054.493082861371</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929847</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.149147719352</v>
+        <v>4706.103304893182</v>
       </c>
       <c r="U43" t="n">
-        <v>4148.02050893291</v>
+        <v>4706.103304893182</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851655</v>
+        <v>4451.418816687295</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814694</v>
+        <v>4451.418816687295</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916677</v>
+        <v>4223.429265789278</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916677</v>
+        <v>4223.429265789278</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7658,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7828,25 +7830,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324578</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028587</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>234.4116509503161</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776735</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024122</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502356</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127143</v>
+        <v>86.81765247434993</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>108.5594869008392</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.18000134478348</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>171.3845422039832</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.43092547708969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.38685156731316</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>124.5670006750293</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>48.75693659211532</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>34.99016838227882</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25132,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>223.5989792968056</v>
+        <v>10.65497486614655</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>94.82465999342813</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>88.01149145430854</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.15892468902774</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>68.34380561848934</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338517</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>185.2331835502355</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277349</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277348</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.5104277349</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808738.5104277353</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="I2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="K2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196779</v>
-      </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,40 +26420,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007431</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007432</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.73165600738</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007442</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.73165600738</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.73165600742</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007481</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007416</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.73165600742</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
@@ -26467,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871665</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.7228422698</v>
+        <v>-225488.7228422703</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722745</v>
+        <v>364479.1563722744</v>
       </c>
       <c r="D6" t="n">
         <v>364479.1563722744</v>
       </c>
       <c r="E6" t="n">
-        <v>-58071.95746194256</v>
+        <v>-58071.95746194251</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.0790149536</v>
+        <v>467088.079014954</v>
       </c>
       <c r="G6" t="n">
-        <v>467088.0790149542</v>
+        <v>467088.0790149539</v>
       </c>
       <c r="H6" t="n">
-        <v>467088.0790149536</v>
+        <v>467088.079014954</v>
       </c>
       <c r="I6" t="n">
         <v>467088.0790149539</v>
@@ -26546,22 +26548,22 @@
         <v>290664.8598223609</v>
       </c>
       <c r="K6" t="n">
+        <v>467088.079014954</v>
+      </c>
+      <c r="L6" t="n">
+        <v>467088.079014954</v>
+      </c>
+      <c r="M6" t="n">
+        <v>332287.0637811168</v>
+      </c>
+      <c r="N6" t="n">
         <v>467088.0790149539</v>
       </c>
-      <c r="L6" t="n">
-        <v>467088.0790149537</v>
-      </c>
-      <c r="M6" t="n">
-        <v>332287.0637811165</v>
-      </c>
-      <c r="N6" t="n">
-        <v>467088.0790149537</v>
-      </c>
       <c r="O6" t="n">
-        <v>467088.0790149539</v>
+        <v>467088.0790149541</v>
       </c>
       <c r="P6" t="n">
-        <v>467088.0790149537</v>
+        <v>467088.079014954</v>
       </c>
     </row>
   </sheetData>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,7 +26801,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26811,22 +26813,22 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="K4" t="n">
         <v>1215.213643253574</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="L4" t="n">
-        <v>1215.213643253574</v>
-      </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>249.3880110942265</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>29.87313520113486</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>123.6795013432094</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.2125709215826</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>275.7118973565169</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>90.56065360815342</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>111.5239550347576</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,22 +27824,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>171.007739736085</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5958900155665106</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>121.3976955891359</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>43.90704846330507</v>
+        <v>144.6438505885392</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789688</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515205965</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36762,7 +36764,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056088</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
@@ -37160,10 +37162,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914243</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37712,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056086</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2594862.840991588</v>
+        <v>2587845.826099877</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9471856.057926979</v>
+        <v>9471856.057926977</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>180.8840510798606</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>319.3678335162782</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>32.49138749858571</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>205.1478855987998</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>89.56099441449065</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>289.534144710398</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>33.89709298817368</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0.3522746327443673</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>260.5326744831258</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>12.03808755530225</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>11.52703825325597</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>64.51766046737393</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>33.35146980185922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784705</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>161.700414797579</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7670008777449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.27249328109806</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>229.0573510537939</v>
+        <v>256.3432811758636</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>115.1384561326077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113182</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986336</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>28.33724577870895</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>101.1426547140078</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>215.0546805228906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>15.59458547084384</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.2037554398999</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>161.8175117958952</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1812.286255290752</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1812.286255290752</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="3">
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942403</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942403</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942403</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>402.6523129118472</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>255.7623654139368</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>86.76256515226922</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036446</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942403</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512.612574238668</v>
+        <v>1104.379069117473</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1104.379069117473</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>746.1133705107229</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>360.3251179124787</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,34 +4655,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.7751770479791</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="C7" t="n">
-        <v>133.8389941200722</v>
+        <v>54.29881478273251</v>
       </c>
       <c r="D7" t="n">
-        <v>133.8389941200722</v>
+        <v>54.29881478273251</v>
       </c>
       <c r="E7" t="n">
-        <v>133.8389941200722</v>
+        <v>54.29881478273251</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>54.29881478273251</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>54.29881478273251</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>54.29881478273251</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>54.29881478273251</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782189</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782189</v>
+        <v>223.2349977106394</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.717708340416</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.717708340416</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D8" t="n">
-        <v>1626.717708340416</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2684.989406618927</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4892,40 +4892,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>259.1560728187101</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E10" t="n">
-        <v>111.242979236317</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F10" t="n">
-        <v>111.242979236317</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G10" t="n">
-        <v>111.242979236317</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>125.4609311463253</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110083</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619851</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383447</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324578</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954972</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954972</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>757.7241344124302</v>
       </c>
     </row>
     <row r="14">
@@ -5269,55 +5269,55 @@
         <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590535</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D16" t="n">
         <v>247.6350999123426</v>
@@ -5430,58 +5430,58 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>846.5338693662258</v>
       </c>
       <c r="W16" t="n">
-        <v>731.31772835508</v>
+        <v>846.5338693662258</v>
       </c>
       <c r="X16" t="n">
-        <v>731.31772835508</v>
+        <v>618.5443184682084</v>
       </c>
       <c r="Y16" t="n">
-        <v>598.2197476704893</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>955.1031435655742</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>727.1135926675569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.3210135240267</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980057</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.08282758574</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347402</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1043.759793676903</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V22" t="n">
-        <v>789.0753054710162</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340557</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6004,13 +6004,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>615.0162575140621</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>615.0162575140621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6250,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.3109288932161</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653033</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1470.292789973348</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1470.292789973348</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1181.164151186906</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>926.4796629810191</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557903</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="X28" t="n">
-        <v>1396.751972866986</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.959393723456</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="29">
@@ -6454,46 +6454,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011341</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1296.555866665167</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,43 +6934,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>557.888878489131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>407.7722390767952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>259.8591454944021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>112.9691979964918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>112.9691979964918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>112.9691979964918</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352016</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150552</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,34 +7189,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,67 +7396,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4223.429265789278</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4054.493082861371</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3904.376443449036</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4706.103304893182</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>4706.103304893182</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V43" t="n">
-        <v>4451.418816687295</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W43" t="n">
-        <v>4451.418816687295</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>4223.429265789278</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>4223.429265789278</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776746</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>115.3143197145634</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.2331835502356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>90.43722852624902</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.81765247434993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.5594869008392</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.18000134478348</v>
+        <v>29.89407122271371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>171.3845422039832</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>169.5835642048943</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>124.5670006750293</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>48.75693659211532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>10.65497486614655</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>94.82465999342813</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.34380561848934</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>124.4198406026821</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>808738.5104277348</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="I2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="K2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="N2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196774</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007401</v>
+        <v>7916.731656007521</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.73165600738</v>
-      </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.73165600738</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.73165600742</v>
+        <v>7916.731656007532</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007483</v>
@@ -26453,7 +26453,7 @@
         <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007483</v>
@@ -26472,16 +26472,16 @@
         <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="O5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-225488.7228422703</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722744</v>
+        <v>364479.1563722745</v>
       </c>
       <c r="D6" t="n">
-        <v>364479.1563722744</v>
+        <v>364479.1563722746</v>
       </c>
       <c r="E6" t="n">
-        <v>-58071.95746194251</v>
+        <v>-59046.54872166391</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.079014954</v>
+        <v>466113.4877552326</v>
       </c>
       <c r="G6" t="n">
-        <v>467088.0790149539</v>
+        <v>466113.4877552321</v>
       </c>
       <c r="H6" t="n">
-        <v>467088.079014954</v>
+        <v>466113.487755232</v>
       </c>
       <c r="I6" t="n">
-        <v>467088.0790149539</v>
+        <v>466113.4877552323</v>
       </c>
       <c r="J6" t="n">
-        <v>290664.8598223609</v>
+        <v>289690.2685626392</v>
       </c>
       <c r="K6" t="n">
-        <v>467088.079014954</v>
+        <v>466113.4877552323</v>
       </c>
       <c r="L6" t="n">
-        <v>467088.079014954</v>
+        <v>466113.4877552325</v>
       </c>
       <c r="M6" t="n">
-        <v>332287.0637811168</v>
+        <v>331312.4725213951</v>
       </c>
       <c r="N6" t="n">
-        <v>467088.0790149539</v>
+        <v>466113.4877552323</v>
       </c>
       <c r="O6" t="n">
-        <v>467088.0790149541</v>
+        <v>466113.4877552321</v>
       </c>
       <c r="P6" t="n">
-        <v>467088.079014954</v>
+        <v>466113.4877552317</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26801,7 +26801,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>225.9919946618508</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>29.87313520113486</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>123.6795013432094</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>13.43676775329496</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>275.7118973565169</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>117.3419010313134</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>111.5239550347576</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.84768455579263</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>121.3976955891359</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>162.3776252536693</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>144.6438505885392</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330529</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.666887533699</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515205965</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2587845.826099877</v>
+        <v>2592785.088948909</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9471856.057926977</v>
+        <v>9471856.057926979</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>180.8840510798606</v>
+        <v>206.2022470329159</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.1478855987998</v>
+        <v>205.1478855987996</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>289.534144710398</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>132.5172612375155</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3522746327443673</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>90.92867953959508</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>12.03808755530225</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>235.2870466745739</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686278</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>70.80276983270126</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.51766046737393</v>
+        <v>135.9059707721073</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>161.700414797579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>160.6049254795573</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>256.3432811758636</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.33724577870895</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>279.3977360013904</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>39.11561436815779</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>161.8175117958952</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>808.0839286340179</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C2" t="n">
-        <v>808.0839286340179</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="D2" t="n">
-        <v>808.0839286340179</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="E2" t="n">
-        <v>808.0839286340179</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4369,13 +4369,13 @@
         <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.68376869814</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4406,22 +4406,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4473,64 +4473,64 @@
         <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
         <v>520.9088977430002</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1104.379069117473</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="C5" t="n">
-        <v>1104.379069117473</v>
+        <v>1356.76206130821</v>
       </c>
       <c r="D5" t="n">
-        <v>746.1133705107229</v>
+        <v>998.4963627014592</v>
       </c>
       <c r="E5" t="n">
-        <v>360.3251179124787</v>
+        <v>612.7081101032149</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>201.7222053136074</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>187.7988012521983</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>187.7988012521983</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157407</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157407</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>1490.978909181595</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223.2349977106394</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C7" t="n">
-        <v>54.29881478273251</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D7" t="n">
-        <v>54.29881478273251</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E7" t="n">
-        <v>54.29881478273251</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>54.29881478273251</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>54.29881478273251</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>54.29881478273251</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>54.29881478273251</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>636.2818331563382</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>636.2818331563382</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.2349977106394</v>
+        <v>415.489254012808</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632.3182666762915</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762915</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2684.989406618927</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="T8" t="n">
-        <v>2466.35473959099</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="U8" t="n">
-        <v>2466.35473959099</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="V8" t="n">
-        <v>2135.291852247419</v>
+        <v>2189.908715988823</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.523196977305</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.057438716225</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.918106740413</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761949</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>377.544336448288</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>227.4276970359523</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>79.5146034535592</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4609311463253</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.5547804049818</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104475</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X13" t="n">
-        <v>757.7241344124302</v>
+        <v>381.3857973138602</v>
       </c>
       <c r="Y13" t="n">
-        <v>757.7241344124302</v>
+        <v>381.3857973138602</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>397.7517393246783</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>846.5338693662258</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>846.5338693662258</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>618.5443184682084</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>397.7517393246783</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>912.983647808862</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,19 +5831,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5943,19 +5943,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1016.198248099061</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>761.5137598931742</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562135</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,7 +6004,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,19 +6165,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011506</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1470.292789973348</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1470.292789973348</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.164151186906</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>926.4796629810191</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>637.0624929440586</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>637.0624929440586</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.2699138005285</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6885,7 +6885,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7180,25 +7180,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7278130442836</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050813</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>29.47535963978214</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.3143197145634</v>
+        <v>43.92600940982999</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>90.43722852624902</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.97972787253752</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>29.89407122271371</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>169.5835642048943</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>7.125262335200603</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>282.8896567338145</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>140.7163658137795</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>124.4198406026821</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277349</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>566992.1366196772</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196778</v>
       </c>
       <c r="I2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="K2" t="n">
         <v>566992.1366196781</v>
@@ -26346,16 +26346,16 @@
         <v>566992.1366196782</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196774</v>
+        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007521</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
@@ -26441,25 +26441,25 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007532</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007413</v>
       </c>
       <c r="N4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.7228422703</v>
+        <v>-225488.72284227</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722745</v>
+        <v>364479.1563722746</v>
       </c>
       <c r="D6" t="n">
-        <v>364479.1563722746</v>
+        <v>364479.1563722744</v>
       </c>
       <c r="E6" t="n">
-        <v>-59046.54872166391</v>
+        <v>-58169.41658791395</v>
       </c>
       <c r="F6" t="n">
-        <v>466113.4877552326</v>
+        <v>466990.6198889817</v>
       </c>
       <c r="G6" t="n">
-        <v>466113.4877552321</v>
+        <v>466990.6198889809</v>
       </c>
       <c r="H6" t="n">
-        <v>466113.487755232</v>
+        <v>466990.6198889819</v>
       </c>
       <c r="I6" t="n">
-        <v>466113.4877552323</v>
+        <v>466990.6198889816</v>
       </c>
       <c r="J6" t="n">
-        <v>289690.2685626392</v>
+        <v>290567.4006963891</v>
       </c>
       <c r="K6" t="n">
-        <v>466113.4877552323</v>
+        <v>466990.6198889819</v>
       </c>
       <c r="L6" t="n">
-        <v>466113.4877552325</v>
+        <v>466990.619888982</v>
       </c>
       <c r="M6" t="n">
-        <v>331312.4725213951</v>
+        <v>332189.6046551444</v>
       </c>
       <c r="N6" t="n">
-        <v>466113.4877552323</v>
+        <v>466990.6198889816</v>
       </c>
       <c r="O6" t="n">
-        <v>466113.4877552321</v>
+        <v>466990.6198889815</v>
       </c>
       <c r="P6" t="n">
-        <v>466113.4877552317</v>
+        <v>466990.6198889819</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541001</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.9919946618508</v>
+        <v>200.6737987087955</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.43676775329496</v>
+        <v>13.43676775329516</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>117.3419010313134</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>19.41405500734575</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>44.84768455579263</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>195.5943187969959</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3776252536693</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>113.9539220428391</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>64.16285195963697</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28721,7 +28721,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
